--- a/test.xlsx
+++ b/test.xlsx
@@ -29,6 +29,380 @@
     <author>user</author>
   </authors>
   <commentList>
+    <comment ref="N5" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">mp_su
+s : </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>포인트</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">적립
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">u : </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>포인트</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>사용</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N6" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">mp_point
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>포인트</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>사용일</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>경우
+음수로</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>등록</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N7" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="맑은 고딕"/>
+            <family val="2"/>
+            <charset val="129"/>
+          </rPr>
+          <t>가입축하금
+상품 구매
+게시글 작성
+관리자 직권</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N8" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">mp_detail
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>가입축하금</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> : </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>빈</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>문자열
+상품구매</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> : </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>주문번호
+게시물작성</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> : </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>게시글</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>번호
+관리자</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>직권</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> : </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>설명</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="D13" authorId="0" shapeId="0">
       <text>
         <r>
@@ -104,7 +478,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="99">
   <si>
     <t>컬럼명</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -379,6 +753,126 @@
   </si>
   <si>
     <t>ma_date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>t_member_point : 회원포인트 내역</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원 ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>포인트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용/적립</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용/적립일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mp_idx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fk</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용/적립 포인트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용/적립일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>내역</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>적립</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>적립</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가입축하금</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상품구매</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>게시글작성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mi_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>내역상세</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mp_su</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>'s'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mp_point</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mp_desc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용/적립내용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(20)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mp_detail</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mp_date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>""</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -386,7 +880,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="177" formatCode="0_ "/>
+  </numFmts>
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -417,6 +914,14 @@
       <family val="3"/>
       <charset val="129"/>
     </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -440,7 +945,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -451,6 +956,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -733,10 +1247,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I13"/>
+  <dimension ref="A1:O26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B7" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="N13" sqref="N13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -747,24 +1261,36 @@
     <col min="4" max="4" width="13.75" customWidth="1"/>
     <col min="5" max="5" width="3.75" customWidth="1"/>
     <col min="7" max="7" width="11" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="13" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="4.375" customWidth="1"/>
+    <col min="11" max="11" width="13.5" customWidth="1"/>
+    <col min="12" max="12" width="11" customWidth="1"/>
+    <col min="13" max="13" width="11.75" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="F1" s="2" t="s">
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="F1" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="K1" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="L1" s="4"/>
+      <c r="M1" s="4"/>
+      <c r="N1" s="4"/>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -789,8 +1315,20 @@
       <c r="I2" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="K2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>16</v>
       </c>
@@ -815,8 +1353,20 @@
       <c r="I3" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="K3" t="s">
+        <v>74</v>
+      </c>
+      <c r="L3" t="s">
+        <v>55</v>
+      </c>
+      <c r="M3" t="s">
+        <v>56</v>
+      </c>
+      <c r="N3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>17</v>
       </c>
@@ -841,8 +1391,20 @@
       <c r="I4" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="K4" t="s">
+        <v>86</v>
+      </c>
+      <c r="L4" t="s">
+        <v>14</v>
+      </c>
+      <c r="M4" t="s">
+        <v>75</v>
+      </c>
+      <c r="N4" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>19</v>
       </c>
@@ -867,8 +1429,20 @@
       <c r="I5" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="K5" t="s">
+        <v>88</v>
+      </c>
+      <c r="L5" t="s">
+        <v>22</v>
+      </c>
+      <c r="M5" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="N5" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>24</v>
       </c>
@@ -890,8 +1464,20 @@
       <c r="I6" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="K6" t="s">
+        <v>90</v>
+      </c>
+      <c r="L6" t="s">
+        <v>91</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>25</v>
       </c>
@@ -916,8 +1502,20 @@
       <c r="I7" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="K7" t="s">
+        <v>92</v>
+      </c>
+      <c r="L7" t="s">
+        <v>94</v>
+      </c>
+      <c r="M7" t="s">
+        <v>95</v>
+      </c>
+      <c r="N7" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>28</v>
       </c>
@@ -942,8 +1540,20 @@
       <c r="I8" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="K8" t="s">
+        <v>96</v>
+      </c>
+      <c r="L8" t="s">
+        <v>94</v>
+      </c>
+      <c r="M8" t="s">
+        <v>98</v>
+      </c>
+      <c r="N8" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>32</v>
       </c>
@@ -968,8 +1578,20 @@
       <c r="I9" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="K9" t="s">
+        <v>97</v>
+      </c>
+      <c r="L9" t="s">
+        <v>37</v>
+      </c>
+      <c r="M9" t="s">
+        <v>39</v>
+      </c>
+      <c r="N9" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>34</v>
       </c>
@@ -995,7 +1617,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>36</v>
       </c>
@@ -1018,7 +1640,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>38</v>
       </c>
@@ -1032,7 +1654,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>40</v>
       </c>
@@ -1046,10 +1668,147 @@
         <v>13</v>
       </c>
     </row>
+    <row r="18" spans="11:15" x14ac:dyDescent="0.3">
+      <c r="K18" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="L18" s="4"/>
+      <c r="M18" t="s">
+        <v>77</v>
+      </c>
+      <c r="N18" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="19" spans="11:15" x14ac:dyDescent="0.3">
+      <c r="K19" t="s">
+        <v>79</v>
+      </c>
+      <c r="L19">
+        <v>1000</v>
+      </c>
+      <c r="M19" s="5">
+        <v>44896</v>
+      </c>
+      <c r="N19" t="s">
+        <v>83</v>
+      </c>
+      <c r="O19" s="6"/>
+    </row>
+    <row r="20" spans="11:15" x14ac:dyDescent="0.3">
+      <c r="K20" t="s">
+        <v>80</v>
+      </c>
+      <c r="L20">
+        <v>-2000</v>
+      </c>
+      <c r="M20" s="5">
+        <v>44897</v>
+      </c>
+      <c r="N20" t="s">
+        <v>84</v>
+      </c>
+      <c r="O20" s="6">
+        <v>202212010001</v>
+      </c>
+    </row>
+    <row r="21" spans="11:15" x14ac:dyDescent="0.3">
+      <c r="K21" t="s">
+        <v>81</v>
+      </c>
+      <c r="L21">
+        <v>500</v>
+      </c>
+      <c r="M21" s="5">
+        <v>44898</v>
+      </c>
+      <c r="N21" t="s">
+        <v>84</v>
+      </c>
+      <c r="O21" s="6">
+        <v>202212010001</v>
+      </c>
+    </row>
+    <row r="22" spans="11:15" x14ac:dyDescent="0.3">
+      <c r="K22" t="s">
+        <v>81</v>
+      </c>
+      <c r="L22">
+        <v>3000</v>
+      </c>
+      <c r="M22" s="5">
+        <v>44899</v>
+      </c>
+      <c r="N22" t="s">
+        <v>84</v>
+      </c>
+      <c r="O22" s="6">
+        <v>202212030005</v>
+      </c>
+    </row>
+    <row r="23" spans="11:15" x14ac:dyDescent="0.3">
+      <c r="K23" t="s">
+        <v>81</v>
+      </c>
+      <c r="L23">
+        <v>400</v>
+      </c>
+      <c r="M23" s="5">
+        <v>44900</v>
+      </c>
+      <c r="N23" t="s">
+        <v>85</v>
+      </c>
+      <c r="O23" s="6">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="24" spans="11:15" x14ac:dyDescent="0.3">
+      <c r="K24" t="s">
+        <v>82</v>
+      </c>
+      <c r="L24">
+        <v>-500</v>
+      </c>
+      <c r="M24" s="5">
+        <v>44901</v>
+      </c>
+      <c r="N24" t="s">
+        <v>84</v>
+      </c>
+      <c r="O24" s="6">
+        <v>202212050014</v>
+      </c>
+    </row>
+    <row r="25" spans="11:15" x14ac:dyDescent="0.3">
+      <c r="K25" t="s">
+        <v>82</v>
+      </c>
+      <c r="L25">
+        <v>-1000</v>
+      </c>
+      <c r="M25" s="5">
+        <v>44902</v>
+      </c>
+      <c r="N25" t="s">
+        <v>84</v>
+      </c>
+      <c r="O25" s="6">
+        <v>202212060123</v>
+      </c>
+    </row>
+    <row r="26" spans="11:15" x14ac:dyDescent="0.3">
+      <c r="L26">
+        <f>SUM(L19:L25)</f>
+        <v>1400</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="4">
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="F1:I1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="K18:L18"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
